--- a/export_ics.xlsx
+++ b/export_ics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Appendix 59</t>
   </si>
@@ -32,21 +32,7 @@
     <t>Fund Cluster : _______________________________</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">               'ICS No :</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF003366"/>
-        <sz val="14"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> 2020-0041</t>
-    </r>
+    <t>ICS No : 1</t>
   </si>
   <si>
     <t>Qty</t>
@@ -73,19 +59,19 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>Cabinet</t>
-  </si>
-  <si>
-    <t>CAB-007</t>
-  </si>
-  <si>
-    <t>3 years</t>
-  </si>
-  <si>
-    <t>Wooden, (danarra wood) with 2 swing door and 5 shelves</t>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Power Sprayer</t>
+  </si>
+  <si>
+    <t>invet1</t>
+  </si>
+  <si>
+    <t>22 Years</t>
+  </si>
+  <si>
+    <t>With accessories brand new; 10 meter hose, gun long, sunction hose, discharge hose, extra gasket filter</t>
   </si>
   <si>
     <t>………...nothing follows…………</t>
@@ -100,10 +86,16 @@
     <t>BEZALEEL O. SOLTURA</t>
   </si>
   <si>
+    <t>chars</t>
+  </si>
+  <si>
     <t>Signature Over Printed Name</t>
   </si>
   <si>
     <t>AO V / FAD / Chief, GS/Supply Section</t>
+  </si>
+  <si>
+    <t>DBA</t>
   </si>
   <si>
     <t>Position/Office</t>
@@ -1942,10 +1934,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="78">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="D11" s="79">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>15</v>
@@ -2175,21 +2167,21 @@
       <c r="D32" s="67"/>
       <c r="E32" s="68"/>
       <c r="F32" s="66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:16140" customHeight="1" ht="15.75">
       <c r="A33" s="72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
       <c r="D33" s="73"/>
       <c r="E33" s="74"/>
       <c r="F33" s="72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G33" s="73"/>
       <c r="H33" s="74"/>
@@ -2206,28 +2198,28 @@
     </row>
     <row r="35" spans="1:16140" customHeight="1" ht="15.75">
       <c r="A35" s="66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35" s="67"/>
       <c r="C35" s="67"/>
       <c r="D35" s="67"/>
       <c r="E35" s="68"/>
       <c r="F35" s="66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:16140" customHeight="1" ht="15.75">
       <c r="A36" s="72" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
       <c r="D36" s="73"/>
       <c r="E36" s="74"/>
       <c r="F36" s="72" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G36" s="73"/>
       <c r="H36" s="74"/>
@@ -2254,14 +2246,14 @@
     </row>
     <row r="39" spans="1:16140" customHeight="1" ht="15.75">
       <c r="A39" s="72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
       <c r="E39" s="74"/>
       <c r="F39" s="72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G39" s="73"/>
       <c r="H39" s="74"/>

--- a/export_ics.xlsx
+++ b/export_ics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Appendix 59</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Fund Cluster : _______________________________</t>
   </si>
   <si>
-    <t>ICS No : 1</t>
+    <t>ICS No : 123123</t>
   </si>
   <si>
     <t>Qty</t>
@@ -59,19 +59,19 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>Power Sprayer</t>
-  </si>
-  <si>
-    <t>invet1</t>
-  </si>
-  <si>
-    <t>22 Years</t>
-  </si>
-  <si>
-    <t>With accessories brand new; 10 meter hose, gun long, sunction hose, discharge hose, extra gasket filter</t>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Cabinet</t>
+  </si>
+  <si>
+    <t>inve1</t>
+  </si>
+  <si>
+    <t>23 Years</t>
+  </si>
+  <si>
+    <t>Wooden, (danarra wood) with 2 swing door and 5 shelves</t>
   </si>
   <si>
     <t>………...nothing follows…………</t>
@@ -86,16 +86,13 @@
     <t>BEZALEEL O. SOLTURA</t>
   </si>
   <si>
-    <t>chars</t>
+    <t>char</t>
   </si>
   <si>
     <t>Signature Over Printed Name</t>
   </si>
   <si>
     <t>AO V / FAD / Chief, GS/Supply Section</t>
-  </si>
-  <si>
-    <t>DBA</t>
   </si>
   <si>
     <t>Position/Office</t>
@@ -1934,10 +1931,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="78">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="D11" s="79">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>15</v>
@@ -2204,22 +2201,20 @@
       <c r="C35" s="67"/>
       <c r="D35" s="67"/>
       <c r="E35" s="68"/>
-      <c r="F35" s="66" t="s">
-        <v>26</v>
-      </c>
+      <c r="F35" s="66"/>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:16140" customHeight="1" ht="15.75">
       <c r="A36" s="72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
       <c r="D36" s="73"/>
       <c r="E36" s="74"/>
       <c r="F36" s="72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="73"/>
       <c r="H36" s="74"/>
@@ -2246,14 +2241,14 @@
     </row>
     <row r="39" spans="1:16140" customHeight="1" ht="15.75">
       <c r="A39" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
       <c r="E39" s="74"/>
       <c r="F39" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G39" s="73"/>
       <c r="H39" s="74"/>
